--- a/CASS Charpy Data-RoomT 2020Jan.xlsx
+++ b/CASS Charpy Data-RoomT 2020Jan.xlsx
@@ -5,16 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljazzyalahmadi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljazzyalahmadi/Library/Mobile Documents/com~apple~CloudDocs/MNM UROP/PNNL-Model-Steels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6738317C-FF8C-BB4C-9A52-1F790510C8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD470BE4-1FD2-FC42-B618-AF80240B7FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impact Test Data at RT" sheetId="23" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">('Impact Test Data at RT'!$A$4,'Impact Test Data at RT'!$A$15,'Impact Test Data at RT'!$A$16,'Impact Test Data at RT'!$A$17,'Impact Test Data at RT'!$A$18,'Impact Test Data at RT'!$A$27,'Impact Test Data at RT'!$A$28,'Impact Test Data at RT'!$A$29,'Impact Test Data at RT'!$A$30)</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">('Impact Test Data at RT'!$G$4,'Impact Test Data at RT'!$G$15,'Impact Test Data at RT'!$G$16,'Impact Test Data at RT'!$G$17,'Impact Test Data at RT'!$G$18,'Impact Test Data at RT'!$G$27,'Impact Test Data at RT'!$G$28,'Impact Test Data at RT'!$G$29,'Impact Test Data at RT'!$G$30)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -753,7 +769,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -874,6 +896,22 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,7 +1312,7 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="G43" sqref="G43:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1362,30 +1400,30 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="30">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
         <f t="shared" ref="D4:D7" si="1">C4*EXP( (-1)*(215000/8.3145)*(1/(273.15+B4)-1/(273.15+325)))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="32">
         <f t="shared" ref="E4:E7" si="2">LN(1+D4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="33">
         <v>180.5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="34">
         <v>1.83</v>
       </c>
     </row>
@@ -1670,114 +1708,114 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="30">
         <v>290</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="30">
         <v>1500</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="31">
         <f t="shared" si="3"/>
         <v>102.14723400510628</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="32">
         <f t="shared" si="4"/>
         <v>4.6361574238897294</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="33">
         <v>123.4</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="34">
         <v>1.63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="30">
         <v>330</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="30">
         <v>1500</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="31">
         <f t="shared" si="3"/>
         <v>2146.5017685935481</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="32">
         <f t="shared" si="4"/>
         <v>7.6720604774173484</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="33">
         <v>113.9</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="34">
         <v>2.08</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="30">
         <v>360</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="30">
         <v>1500</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="31">
         <f t="shared" si="3"/>
         <v>16366.254958003652</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="32">
         <f t="shared" si="4"/>
         <v>9.7030379689493902</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="33">
         <v>125.4</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="34">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="30">
         <v>400</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="30">
         <v>1500</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="31">
         <f t="shared" si="3"/>
         <v>185318.63991356353</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="32">
         <f t="shared" si="4"/>
         <v>12.129837396476482</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="33">
         <v>103</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="34">
         <v>1.68</v>
       </c>
     </row>
@@ -2006,114 +2044,114 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="30">
         <v>290</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="30">
         <v>10000</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="31">
         <f t="shared" si="3"/>
         <v>680.98156003404188</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="32">
         <f t="shared" si="4"/>
         <v>6.5250026194046749</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="33">
         <v>124.7</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="34">
         <v>1.63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="30">
         <v>330</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="30">
         <v>10000</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="31">
         <f t="shared" si="3"/>
         <v>14310.011790623654</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="32">
         <f t="shared" si="4"/>
         <v>9.5687845751959149</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="33">
         <v>128.80000000000001</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="34">
         <v>1.98</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="30">
         <v>360</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="30">
         <v>10000</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="31">
         <f t="shared" si="3"/>
         <v>109108.36638669101</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="32">
         <f t="shared" si="4"/>
         <v>11.600106019526528</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="33">
         <v>118.6</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="34">
         <v>1.98</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="30">
         <v>400</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="30">
         <v>10000</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="31">
         <f t="shared" si="3"/>
         <v>1235457.5994237568</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="32">
         <f t="shared" si="4"/>
         <v>14.026952794682021</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="33">
         <v>136.4</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="34">
         <v>2.64</v>
       </c>
     </row>
@@ -2454,114 +2492,114 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="30">
         <v>290</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="30">
         <v>30000</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="31">
         <f t="shared" si="3"/>
         <v>2042.9446801021256</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="32">
         <f t="shared" si="4"/>
         <v>7.6226368864280509</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="33">
         <v>142.4</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="34">
         <v>1.65</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="30">
         <v>330</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="30">
         <v>30000</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="31">
         <f t="shared" si="3"/>
         <v>42930.035371870959</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="32">
         <f t="shared" si="4"/>
         <v>10.667350278604719</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="33">
         <v>129.5</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="34">
         <v>2.29</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="30">
         <v>360</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="30">
         <v>30000</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="31">
         <f t="shared" si="3"/>
         <v>327325.09916007303</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="32">
         <f t="shared" si="4"/>
         <v>12.698712198098635</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="33">
         <v>109.8</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="34">
         <v>2.64</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="30">
         <v>400</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="30">
         <v>30000</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="31">
         <f t="shared" si="3"/>
         <v>3706372.7982712705</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="32">
         <f t="shared" si="4"/>
         <v>15.125564543739296</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="33">
         <v>63.7</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="34">
         <v>1.24</v>
       </c>
     </row>
